--- a/Caso de Uso navegador.xlsx
+++ b/Caso de Uso navegador.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="95">
   <si>
     <t>Objetivo</t>
   </si>
@@ -250,13 +250,112 @@
   </si>
   <si>
     <t>Fluxo Alternativo 2 - Remover Usuário do Grupo</t>
+  </si>
+  <si>
+    <t>UC004 - Registro de Log</t>
+  </si>
+  <si>
+    <t>Grupo, usuário e web</t>
+  </si>
+  <si>
+    <t>Registros</t>
+  </si>
+  <si>
+    <t>Possuir grupo e usuário no sistema, estar logado no sistema e acesso ao web</t>
+  </si>
+  <si>
+    <t>Acessar o navegador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema carrega a pagina e logar no navegador </t>
+  </si>
+  <si>
+    <t>Fluxo Principal - Registrar</t>
+  </si>
+  <si>
+    <t>Acessar a página de Registro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 - Controle de versão </t>
+  </si>
+  <si>
+    <t>Emitir registo</t>
+  </si>
+  <si>
+    <t>Selecionar o usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema lista o usuário, com opção de emitir o registro </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>27/03/2019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Versão: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descrição:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Detalhamento de casao de uso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Responsável:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Erick </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Emite o log do usuário selecionado </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +383,15 @@
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -291,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,8 +418,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -335,14 +449,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -354,6 +468,19 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -416,95 +543,136 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,687 +976,955 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C97"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.85546875" customWidth="1"/>
-    <col min="2" max="2" width="71.85546875" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="28"/>
+    </row>
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32"/>
-    </row>
-    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B9" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B12" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B14" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="B15" s="43"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B16" s="44" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B17" s="32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B18" s="45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B19" s="32"/>
+    </row>
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="13"/>
-    </row>
-    <row r="17" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="B20" s="32"/>
+    </row>
+    <row r="21" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+    </row>
+    <row r="22" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="15"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="B22" s="44"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B24" s="32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B25" s="45" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B26" s="45" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B27" s="32"/>
+    </row>
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B28" s="32"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B29" s="32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B30" s="32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13"/>
-    </row>
-    <row r="27" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+    <row r="31" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="15"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="B32" s="44"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B33" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B34" s="32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B35" s="45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="36" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B36" s="45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="11"/>
-    </row>
-    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="B37" s="32"/>
+    </row>
+    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="11"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="13"/>
-    </row>
-    <row r="35" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="B38" s="32"/>
+    </row>
+    <row r="39" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+    </row>
+    <row r="40" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="19"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="B40" s="46"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B41" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B42" s="32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B43" s="32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B44" s="45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="11"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
+      <c r="B45" s="32"/>
+    </row>
+    <row r="46" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="34"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+      <c r="B47" s="29"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B48" s="39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B49" s="40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B50" s="40" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B51" s="40" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B52" s="40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B53" s="41" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B54" s="40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
-    </row>
-    <row r="51" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+    <row r="55" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="50"/>
+      <c r="B55" s="42"/>
+    </row>
+    <row r="56" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="24"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="B56" s="43"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B58" s="32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B59" s="45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="11"/>
-    </row>
-    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="B60" s="32"/>
+    </row>
+    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="11"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="13"/>
-    </row>
-    <row r="58" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+      <c r="B61" s="32"/>
+    </row>
+    <row r="62" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+    </row>
+    <row r="63" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="15"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
+      <c r="B63" s="44"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B64" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B65" s="32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B66" s="45" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="67" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B67" s="45" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="11"/>
-    </row>
-    <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="B68" s="32"/>
+    </row>
+    <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="11"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="B69" s="32"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B70" s="32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B71" s="32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="13"/>
-    </row>
-    <row r="68" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
+    <row r="72" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+    </row>
+    <row r="73" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="15"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
+      <c r="B73" s="44"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B74" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B75" s="32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B76" s="45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="77" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B77" s="45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B73" s="11"/>
-    </row>
-    <row r="74" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="B78" s="32"/>
+    </row>
+    <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B74" s="11"/>
-    </row>
-    <row r="76" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="27" t="s">
+      <c r="B79" s="32"/>
+    </row>
+    <row r="80" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="32"/>
+    </row>
+    <row r="81" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B76" s="19"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="28" t="s">
+      <c r="B81" s="46"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B82" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B83" s="32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B84" s="32" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B85" s="45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="11"/>
-    </row>
-    <row r="83" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="26" t="s">
+      <c r="B86" s="32"/>
+    </row>
+    <row r="87" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="32"/>
+    </row>
+    <row r="88" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B83" s="15"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
+      <c r="B88" s="44"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B89" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B90" s="32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B91" s="45" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B92" s="45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B88" s="11"/>
-    </row>
-    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="B93" s="32"/>
+    </row>
+    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B89" s="11"/>
-    </row>
-    <row r="91" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="26" t="s">
+      <c r="B94" s="32"/>
+    </row>
+    <row r="95" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="32"/>
+    </row>
+    <row r="96" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="15"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
+      <c r="B96" s="44"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B92" s="20" t="s">
+      <c r="B97" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B98" s="32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B99" s="45" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B100" s="45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B96" s="11"/>
-    </row>
-    <row r="97" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="B101" s="32"/>
+    </row>
+    <row r="102" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B97" s="11"/>
+      <c r="B102" s="32"/>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="32"/>
+      <c r="C103" s="26"/>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" s="26"/>
+      <c r="C104" s="23"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="6"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" s="6"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" s="6"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C108" s="6"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="6"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C110" s="6"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="6"/>
+    </row>
+    <row r="112" spans="1:3" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B112" s="43"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B114" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" s="45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" s="32"/>
+    </row>
+    <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" s="32"/>
+    </row>
+    <row r="118" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="13"/>
+      <c r="B118" s="13"/>
+    </row>
+    <row r="119" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" s="44"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B122" s="45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" s="32"/>
+    </row>
+    <row r="124" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" s="32"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="10"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="11"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
+      <c r="B129" s="11"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="10"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="B131" s="10"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="25"/>
+      <c r="B132" s="12"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="10"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="10"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
+      <c r="B135" s="11"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A42:B42"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
